--- a/ChampionsLeague/Predictions/Formatted/QF.xlsx
+++ b/ChampionsLeague/Predictions/Formatted/QF.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\FP5\PL-Score-Predictor-V5\ChampionsLeague\Predictions\Formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CFB8875-06DA-403E-AF0E-CA4DD80A3FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC95B384-D054-4302-9421-EC81E916B58E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -65,13 +76,19 @@
   </si>
   <si>
     <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Random Score 1</t>
+  </si>
+  <si>
+    <t>Random Score 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +100,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,7 +154,30 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -160,23 +206,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -191,16 +220,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AFB4691-967D-4A05-B937-3562890C6EFC}" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:G9" xr:uid="{74217543-094F-4B45-ADDF-35C7B2605F25}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3FA58BAD-33D4-420E-8ED3-0C65B65FDEF2}" name="date" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AFB4691-967D-4A05-B937-3562890C6EFC}" name="Table1" displayName="Table1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:I9" xr:uid="{74217543-094F-4B45-ADDF-35C7B2605F25}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3FA58BAD-33D4-420E-8ED3-0C65B65FDEF2}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{49FC57F9-12E7-43BB-A0D4-19AFF6DC82D5}" name="team1"/>
     <tableColumn id="3" xr3:uid="{8FFA151C-0018-4E6D-A4B7-0A3322855BCC}" name="team2"/>
     <tableColumn id="4" xr3:uid="{63F08E95-587B-4D5E-A7D2-B6C8E1963C18}" name="Lenny Score 1"/>
     <tableColumn id="5" xr3:uid="{E51748DA-229B-4F8E-B8CC-E95B23C17374}" name="Lenny Score 2"/>
     <tableColumn id="6" xr3:uid="{9B9AD31E-DCF7-427E-AE58-1609AA309610}" name="Tanner Score 1"/>
     <tableColumn id="7" xr3:uid="{6F834AF7-876C-4510-AF7D-9EFF619C4DB2}" name="Tanner Score 2"/>
+    <tableColumn id="9" xr3:uid="{17900E9C-7801-4F8E-98AB-03D7F83B2255}" name="Random Score 1" dataDxfId="1">
+      <calculatedColumnFormula>RANDBETWEEN(0,4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{5C6C8AD3-8068-4372-BE7B-21B4068D0A74}" name="Random Score 2" dataDxfId="0">
+      <calculatedColumnFormula>RANDBETWEEN(0,4)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -491,20 +526,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.1796875" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="7" width="20.1796875" customWidth="1"/>
+    <col min="4" max="9" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -526,8 +561,14 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44292</v>
       </c>
@@ -549,8 +590,16 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H9" ca="1" si="0">RANDBETWEEN(0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I9" ca="1" si="1">RANDBETWEEN(0,4)</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44292</v>
       </c>
@@ -572,8 +621,16 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44293</v>
       </c>
@@ -595,8 +652,16 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44293</v>
       </c>
@@ -618,8 +683,16 @@
       <c r="G5">
         <v>2</v>
       </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44299</v>
       </c>
@@ -641,8 +714,16 @@
       <c r="G6">
         <v>2</v>
       </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44299</v>
       </c>
@@ -664,8 +745,16 @@
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44300</v>
       </c>
@@ -687,8 +776,16 @@
       <c r="G8">
         <v>2</v>
       </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44300</v>
       </c>
@@ -710,8 +807,17 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/ChampionsLeague/Predictions/Formatted/QF.xlsx
+++ b/ChampionsLeague/Predictions/Formatted/QF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\FP5\PL-Score-Predictor-V5\ChampionsLeague\Predictions\Formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC95B384-D054-4302-9421-EC81E916B58E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEA4E81-AD6C-40D3-8AF5-B7452C88EA0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,10 +78,10 @@
     <t>Chelsea</t>
   </si>
   <si>
-    <t>Random Score 1</t>
-  </si>
-  <si>
-    <t>Random Score 2</t>
+    <t>Random 1</t>
+  </si>
+  <si>
+    <t>Random 2</t>
   </si>
 </sst>
 </file>
@@ -230,11 +230,11 @@
     <tableColumn id="5" xr3:uid="{E51748DA-229B-4F8E-B8CC-E95B23C17374}" name="Lenny Score 2"/>
     <tableColumn id="6" xr3:uid="{9B9AD31E-DCF7-427E-AE58-1609AA309610}" name="Tanner Score 1"/>
     <tableColumn id="7" xr3:uid="{6F834AF7-876C-4510-AF7D-9EFF619C4DB2}" name="Tanner Score 2"/>
-    <tableColumn id="9" xr3:uid="{17900E9C-7801-4F8E-98AB-03D7F83B2255}" name="Random Score 1" dataDxfId="1">
-      <calculatedColumnFormula>RANDBETWEEN(0,4)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{47C8C04D-B53B-48C8-83E8-1A54ED28FD2F}" name="Random 1" dataDxfId="1">
+      <calculatedColumnFormula>RANDBETWEEN(0,3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5C6C8AD3-8068-4372-BE7B-21B4068D0A74}" name="Random Score 2" dataDxfId="0">
-      <calculatedColumnFormula>RANDBETWEEN(0,4)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{8168347D-B328-4938-8852-525F825BCDFF}" name="Random 2" dataDxfId="0">
+      <calculatedColumnFormula>RANDBETWEEN(0,3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -529,14 +529,15 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.1796875" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="9" width="17.453125" customWidth="1"/>
+    <col min="4" max="7" width="17.453125" customWidth="1"/>
+    <col min="8" max="9" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -591,12 +592,12 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H9" ca="1" si="0">RANDBETWEEN(0,4)</f>
+        <f t="shared" ref="H2:H9" ca="1" si="0">RANDBETWEEN(0,3)</f>
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I9" ca="1" si="1">RANDBETWEEN(0,3)</f>
         <v>0</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I9" ca="1" si="1">RANDBETWEEN(0,4)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -623,7 +624,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
@@ -689,7 +690,7 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -716,7 +717,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
@@ -747,11 +748,11 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -809,11 +810,11 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
